--- a/tool/4_翻译字库/翻译替换_mini.xlsx
+++ b/tool/4_翻译字库/翻译替换_mini.xlsx
@@ -5,17 +5,17 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\save\tool_mini\tool\4_翻译\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\save\tool_mini\tool\4_翻译字库\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="238" yWindow="106" windowWidth="14810" windowHeight="8019"/>
+    <workbookView xWindow="238" yWindow="106" windowWidth="14810" windowHeight="8019" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="翻译前" sheetId="1" r:id="rId1"/>
-    <sheet name="翻译" sheetId="2" r:id="rId2"/>
-    <sheet name="按ID合成" sheetId="3" r:id="rId3"/>
-    <sheet name="按CN合成" sheetId="7" r:id="rId4"/>
+    <sheet name="S8910" sheetId="1" r:id="rId1"/>
+    <sheet name="S107" sheetId="2" r:id="rId2"/>
+    <sheet name="ID_out" sheetId="3" r:id="rId3"/>
+    <sheet name="CN_out" sheetId="7" r:id="rId4"/>
     <sheet name="统计" sheetId="8" r:id="rId5"/>
     <sheet name="说明" sheetId="4" r:id="rId6"/>
   </sheets>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="81">
   <si>
     <t/>
   </si>
@@ -382,6 +382,22 @@
     <t>是否修改TRUE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>-------107翻译----8910翻译-----合成----------------------------------------</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语言1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语言2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -390,7 +406,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-407]General"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -472,6 +488,14 @@
       <color theme="0"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -623,7 +647,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -657,6 +681,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="32" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -695,7 +726,21 @@
     <cellStyle name="常规 7" xfId="25"/>
     <cellStyle name="常规 8 2" xfId="26"/>
   </cellStyles>
-  <dxfs count="209">
+  <dxfs count="206">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -723,20 +768,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3269,27 +3300,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
@@ -3599,8 +3609,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.25" x14ac:dyDescent="0.15"/>
@@ -3611,6 +3621,15 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
         <v>44</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
@@ -4001,7 +4020,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.25" x14ac:dyDescent="0.15"/>
@@ -4228,7 +4247,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.25"/>
@@ -4245,27 +4264,27 @@
         <v>44</v>
       </c>
       <c r="B1" s="3" t="str">
-        <f>IF(ISNUMBER(MATCH(按ID合成!$A1,翻译!$A$2:$A$6479,)),INDEX(翻译!C$2:C$6479,MATCH(按ID合成!$A1,翻译!$A$2:$A$6479,)),翻译前!B1)&amp;""</f>
-        <v/>
+        <f>IF(ISNUMBER(MATCH(ID_out!$A1,'S107'!$A$2:$A$6479,)),INDEX('S107'!C$2:C$6479,MATCH(ID_out!$A1,'S107'!$A$2:$A$6479,)),'S8910'!B1)&amp;""</f>
+        <v>中文</v>
       </c>
       <c r="C1" s="4" t="str">
-        <f>IF(B1="",IF(翻译前!B1=0,B1,翻译前!B1),B1)&amp;""</f>
-        <v/>
+        <f>IF(B1="",IF('S8910'!B1=0,B1,'S8910'!B1),B1)&amp;""</f>
+        <v>中文</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="7" t="str">
-        <f>IF(翻译前!B1&amp;""=D1,"",D1)</f>
+        <f>IF('S8910'!B1&amp;""=D1,"",D1)</f>
         <v/>
       </c>
       <c r="F1" s="7" t="str">
-        <f>IF(翻译前!B1&amp;""=D1,"",翻译前!B1&amp;"")</f>
-        <v/>
+        <f>IF('S8910'!B1&amp;""=D1,"",'S8910'!B1&amp;"")</f>
+        <v>中文</v>
       </c>
       <c r="G1" s="7" t="str">
-        <f>IF(翻译前!$B1&amp;""=按ID合成!$D1,"","TRUE")</f>
-        <v/>
+        <f>IF('S8910'!$B1&amp;""=ID_out!$D1,"","TRUE")</f>
+        <v>TRUE</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>0</v>
@@ -4277,8 +4296,8 @@
         <v>75</v>
       </c>
       <c r="L1" s="7" t="str">
-        <f>IF(翻译前!$B$1&amp;""=按ID合成!$D$1,"","TRUE")</f>
-        <v/>
+        <f>IF('S8910'!$B$1&amp;""=ID_out!$D$1,"","TRUE")</f>
+        <v>TRUE</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -4286,26 +4305,26 @@
         <v>45</v>
       </c>
       <c r="B2" s="3" t="str">
-        <f>IF(ISNUMBER(MATCH(按ID合成!$A2,翻译!$A$2:$A$16574,)),INDEX(翻译!B$2:B$16574,MATCH(按ID合成!$A2,翻译!$A$2:$A$16574,)),翻译前!B2)&amp;""</f>
+        <f>IF(ISNUMBER(MATCH(ID_out!$A2,'S107'!$A$2:$A$16574,)),INDEX('S107'!B$2:B$16574,MATCH(ID_out!$A2,'S107'!$A$2:$A$16574,)),'S8910'!B2)&amp;""</f>
         <v>Ukrainian</v>
       </c>
       <c r="C2" s="4" t="str">
-        <f>IF(B2="",IF(翻译前!B2=0,B2,翻译前!B2),B2)&amp;""</f>
+        <f>IF(B2="",IF('S8910'!B2=0,B2,'S8910'!B2),B2)&amp;""</f>
         <v>Ukrainian</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>66</v>
       </c>
       <c r="E2" s="7" t="str">
-        <f>IF(翻译前!B2&amp;""=D2,"",D2)</f>
+        <f>IF('S8910'!B2&amp;""=D2,"",D2)</f>
         <v/>
       </c>
       <c r="F2" s="7" t="str">
-        <f>IF(翻译前!B2&amp;""=D2,"",翻译前!B2&amp;"")</f>
+        <f>IF('S8910'!B2&amp;""=D2,"",'S8910'!B2&amp;"")</f>
         <v/>
       </c>
       <c r="G2" s="7" t="str">
-        <f>IF(翻译前!$B2&amp;""=按ID合成!$D2,"","TRUE")</f>
+        <f>IF('S8910'!$B2&amp;""=ID_out!$D2,"","TRUE")</f>
         <v/>
       </c>
       <c r="H2" s="7" t="s">
@@ -4317,26 +4336,26 @@
         <v>46</v>
       </c>
       <c r="B3" s="3" t="str">
-        <f>IF(ISNUMBER(MATCH(按ID合成!$A3,翻译!$A$2:$A$16574,)),INDEX(翻译!B$2:B$16574,MATCH(按ID合成!$A3,翻译!$A$2:$A$16574,)),翻译前!B3)&amp;""</f>
+        <f>IF(ISNUMBER(MATCH(ID_out!$A3,'S107'!$A$2:$A$16574,)),INDEX('S107'!B$2:B$16574,MATCH(ID_out!$A3,'S107'!$A$2:$A$16574,)),'S8910'!B3)&amp;""</f>
         <v>*#0380#</v>
       </c>
       <c r="C3" s="4" t="str">
-        <f>IF(B3="",IF(翻译前!B3=0,B3,翻译前!B3),B3)&amp;""</f>
+        <f>IF(B3="",IF('S8910'!B3=0,B3,'S8910'!B3),B3)&amp;""</f>
         <v>*#0380#</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>67</v>
       </c>
       <c r="E3" s="7" t="str">
-        <f>IF(翻译前!B3&amp;""=D3,"",D3)</f>
+        <f>IF('S8910'!B3&amp;""=D3,"",D3)</f>
         <v/>
       </c>
       <c r="F3" s="7" t="str">
-        <f>IF(翻译前!B3&amp;""=D3,"",翻译前!B3&amp;"")</f>
+        <f>IF('S8910'!B3&amp;""=D3,"",'S8910'!B3&amp;"")</f>
         <v/>
       </c>
       <c r="G3" s="7" t="str">
-        <f>IF(翻译前!$B3&amp;""=按ID合成!$D3,"","TRUE")</f>
+        <f>IF('S8910'!$B3&amp;""=ID_out!$D3,"","TRUE")</f>
         <v/>
       </c>
       <c r="H3" s="7" t="s">
@@ -4351,26 +4370,26 @@
         <v>47</v>
       </c>
       <c r="B4" s="3" t="str">
-        <f>IF(ISNUMBER(MATCH(按ID合成!$A4,翻译!$A$2:$A$16574,)),INDEX(翻译!B$2:B$16574,MATCH(按ID合成!$A4,翻译!$A$2:$A$16574,)),翻译前!B4)&amp;""</f>
+        <f>IF(ISNUMBER(MATCH(ID_out!$A4,'S107'!$A$2:$A$16574,)),INDEX('S107'!B$2:B$16574,MATCH(ID_out!$A4,'S107'!$A$2:$A$16574,)),'S8910'!B4)&amp;""</f>
         <v>OK</v>
       </c>
       <c r="C4" s="4" t="str">
-        <f>IF(B4="",IF(翻译前!B4=0,B4,翻译前!B4),B4)&amp;""</f>
+        <f>IF(B4="",IF('S8910'!B4=0,B4,'S8910'!B4),B4)&amp;""</f>
         <v>OK</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>54</v>
       </c>
       <c r="E4" s="7" t="str">
-        <f>IF(翻译前!B4&amp;""=D4,"",D4)</f>
+        <f>IF('S8910'!B4&amp;""=D4,"",D4)</f>
         <v/>
       </c>
       <c r="F4" s="7" t="str">
-        <f>IF(翻译前!B4&amp;""=D4,"",翻译前!B4&amp;"")</f>
+        <f>IF('S8910'!B4&amp;""=D4,"",'S8910'!B4&amp;"")</f>
         <v/>
       </c>
       <c r="G4" s="7" t="str">
-        <f>IF(翻译前!$B4&amp;""=按ID合成!$D4,"","TRUE")</f>
+        <f>IF('S8910'!$B4&amp;""=ID_out!$D4,"","TRUE")</f>
         <v/>
       </c>
       <c r="H4" s="7" t="s">
@@ -4380,8 +4399,8 @@
         <v>32</v>
       </c>
       <c r="J4">
-        <f t="array" ref="J4">SUM(IF(翻译前!B$1:B$6479&lt;&gt;"",1,0))</f>
-        <v>6</v>
+        <f t="array" ref="J4">SUM(IF('S8910'!B$1:B$6479&lt;&gt;"",1,0))</f>
+        <v>7</v>
       </c>
       <c r="K4">
         <v>1050</v>
@@ -4392,26 +4411,26 @@
         <v>48</v>
       </c>
       <c r="B5" s="3" t="str">
-        <f>IF(ISNUMBER(MATCH(按ID合成!$A5,翻译!$A$2:$A$16574,)),INDEX(翻译!B$2:B$16574,MATCH(按ID合成!$A5,翻译!$A$2:$A$16574,)),翻译前!B5)&amp;""</f>
+        <f>IF(ISNUMBER(MATCH(ID_out!$A5,'S107'!$A$2:$A$16574,)),INDEX('S107'!B$2:B$16574,MATCH(ID_out!$A5,'S107'!$A$2:$A$16574,)),'S8910'!B5)&amp;""</f>
         <v>Назад</v>
       </c>
       <c r="C5" s="4" t="str">
-        <f>IF(B5="",IF(翻译前!B5=0,B5,翻译前!B5),B5)&amp;""</f>
+        <f>IF(B5="",IF('S8910'!B5=0,B5,'S8910'!B5),B5)&amp;""</f>
         <v>Назад</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>58</v>
       </c>
       <c r="E5" s="7" t="str">
-        <f>IF(翻译前!B5&amp;""=D5,"",D5)</f>
+        <f>IF('S8910'!B5&amp;""=D5,"",D5)</f>
         <v/>
       </c>
       <c r="F5" s="7" t="str">
-        <f>IF(翻译前!B5&amp;""=D5,"",翻译前!B5&amp;"")</f>
+        <f>IF('S8910'!B5&amp;""=D5,"",'S8910'!B5&amp;"")</f>
         <v/>
       </c>
       <c r="G5" s="7" t="str">
-        <f>IF(翻译前!$B5&amp;""=按ID合成!$D5,"","TRUE")</f>
+        <f>IF('S8910'!$B5&amp;""=ID_out!$D5,"","TRUE")</f>
         <v/>
       </c>
       <c r="H5" s="7" t="s">
@@ -4422,7 +4441,7 @@
       </c>
       <c r="J5">
         <f t="array" ref="J5">SUM(IF(B$1:B$14&lt;&gt;"",1,0))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K5">
         <v>1050</v>
@@ -4433,26 +4452,26 @@
         <v>49</v>
       </c>
       <c r="B6" s="3" t="str">
-        <f>IF(ISNUMBER(MATCH(按ID合成!$A6,翻译!$A$2:$A$16574,)),INDEX(翻译!B$2:B$16574,MATCH(按ID合成!$A6,翻译!$A$2:$A$16574,)),翻译前!B6)&amp;""</f>
+        <f>IF(ISNUMBER(MATCH(ID_out!$A6,'S107'!$A$2:$A$16574,)),INDEX('S107'!B$2:B$16574,MATCH(ID_out!$A6,'S107'!$A$2:$A$16574,)),'S8910'!B6)&amp;""</f>
         <v>Параметри</v>
       </c>
       <c r="C6" s="4" t="str">
-        <f>IF(B6="",IF(翻译前!B6=0,B6,翻译前!B6),B6)&amp;""</f>
+        <f>IF(B6="",IF('S8910'!B6=0,B6,'S8910'!B6),B6)&amp;""</f>
         <v>Параметри</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>68</v>
       </c>
       <c r="E6" s="7" t="str">
-        <f>IF(翻译前!B6&amp;""=D6,"",D6)</f>
+        <f>IF('S8910'!B6&amp;""=D6,"",D6)</f>
         <v/>
       </c>
       <c r="F6" s="7" t="str">
-        <f>IF(翻译前!B6&amp;""=D6,"",翻译前!B6&amp;"")</f>
+        <f>IF('S8910'!B6&amp;""=D6,"",'S8910'!B6&amp;"")</f>
         <v/>
       </c>
       <c r="G6" s="7" t="str">
-        <f>IF(翻译前!$B6&amp;""=按ID合成!$D6,"","TRUE")</f>
+        <f>IF('S8910'!$B6&amp;""=ID_out!$D6,"","TRUE")</f>
         <v/>
       </c>
       <c r="H6" s="7" t="s">
@@ -4463,7 +4482,7 @@
       </c>
       <c r="J6">
         <f t="array" ref="J6">SUM(IF(C$1:C$14&lt;&gt;"",1,0))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K6">
         <v>1050</v>
@@ -4474,26 +4493,26 @@
         <v>50</v>
       </c>
       <c r="B7" s="3" t="str">
-        <f>IF(ISNUMBER(MATCH(按ID合成!$A7,翻译!$A$2:$A$16574,)),INDEX(翻译!B$2:B$16574,MATCH(按ID合成!$A7,翻译!$A$2:$A$16574,)),翻译前!B7)&amp;""</f>
+        <f>IF(ISNUMBER(MATCH(ID_out!$A7,'S107'!$A$2:$A$16574,)),INDEX('S107'!B$2:B$16574,MATCH(ID_out!$A7,'S107'!$A$2:$A$16574,)),'S8910'!B7)&amp;""</f>
         <v>Так</v>
       </c>
       <c r="C7" s="4" t="str">
-        <f>IF(B7="",IF(翻译前!B7=0,B7,翻译前!B7),B7)&amp;""</f>
+        <f>IF(B7="",IF('S8910'!B7=0,B7,'S8910'!B7),B7)&amp;""</f>
         <v>Так</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>69</v>
       </c>
       <c r="E7" s="7" t="str">
-        <f>IF(翻译前!B7&amp;""=D7,"",D7)</f>
+        <f>IF('S8910'!B7&amp;""=D7,"",D7)</f>
         <v/>
       </c>
       <c r="F7" s="7" t="str">
-        <f>IF(翻译前!B7&amp;""=D7,"",翻译前!B7&amp;"")</f>
+        <f>IF('S8910'!B7&amp;""=D7,"",'S8910'!B7&amp;"")</f>
         <v/>
       </c>
       <c r="G7" s="7" t="str">
-        <f>IF(翻译前!$B7&amp;""=按ID合成!$D7,"","TRUE")</f>
+        <f>IF('S8910'!$B7&amp;""=ID_out!$D7,"","TRUE")</f>
         <v/>
       </c>
       <c r="H7" s="7" t="s">
@@ -4505,26 +4524,26 @@
         <v>51</v>
       </c>
       <c r="B8" s="3" t="str">
-        <f>IF(ISNUMBER(MATCH(按ID合成!$A8,翻译!$A$2:$A$16574,)),INDEX(翻译!B$2:B$16574,MATCH(按ID合成!$A8,翻译!$A$2:$A$16574,)),翻译前!B8)&amp;""</f>
+        <f>IF(ISNUMBER(MATCH(ID_out!$A8,'S107'!$A$2:$A$16574,)),INDEX('S107'!B$2:B$16574,MATCH(ID_out!$A8,'S107'!$A$2:$A$16574,)),'S8910'!B8)&amp;""</f>
         <v/>
       </c>
       <c r="C8" s="4" t="str">
-        <f>IF(B8="",IF(翻译前!B8=0,B8,翻译前!B8),B8)&amp;""</f>
+        <f>IF(B8="",IF('S8910'!B8=0,B8,'S8910'!B8),B8)&amp;""</f>
         <v/>
       </c>
       <c r="D8" s="5" t="s">
         <v>70</v>
       </c>
       <c r="E8" s="7" t="str">
-        <f>IF(翻译前!B8&amp;""=D8,"",D8)</f>
+        <f>IF('S8910'!B8&amp;""=D8,"",D8)</f>
         <v>Ні</v>
       </c>
       <c r="F8" s="7" t="str">
-        <f>IF(翻译前!B8&amp;""=D8,"",翻译前!B8&amp;"")</f>
+        <f>IF('S8910'!B8&amp;""=D8,"",'S8910'!B8&amp;"")</f>
         <v/>
       </c>
       <c r="G8" s="7" t="str">
-        <f>IF(翻译前!$B8&amp;""=按ID合成!$D8,"","TRUE")</f>
+        <f>IF('S8910'!$B8&amp;""=ID_out!$D8,"","TRUE")</f>
         <v>TRUE</v>
       </c>
       <c r="H8" s="7" t="s">
@@ -4539,26 +4558,26 @@
         <v>52</v>
       </c>
       <c r="B9" s="3" t="str">
-        <f>IF(ISNUMBER(MATCH(按ID合成!$A9,翻译!$A$2:$A$16574,)),INDEX(翻译!B$2:B$16574,MATCH(按ID合成!$A9,翻译!$A$2:$A$16574,)),翻译前!B9)&amp;""</f>
+        <f>IF(ISNUMBER(MATCH(ID_out!$A9,'S107'!$A$2:$A$16574,)),INDEX('S107'!B$2:B$16574,MATCH(ID_out!$A9,'S107'!$A$2:$A$16574,)),'S8910'!B9)&amp;""</f>
         <v/>
       </c>
       <c r="C9" s="4" t="str">
-        <f>IF(B9="",IF(翻译前!B9=0,B9,翻译前!B9),B9)&amp;""</f>
+        <f>IF(B9="",IF('S8910'!B9=0,B9,'S8910'!B9),B9)&amp;""</f>
         <v/>
       </c>
       <c r="D9" s="5" t="s">
         <v>71</v>
       </c>
       <c r="E9" s="7" t="str">
-        <f>IF(翻译前!B9&amp;""=D9,"",D9)</f>
+        <f>IF('S8910'!B9&amp;""=D9,"",D9)</f>
         <v>Очистити</v>
       </c>
       <c r="F9" s="7" t="str">
-        <f>IF(翻译前!B9&amp;""=D9,"",翻译前!B9&amp;"")</f>
+        <f>IF('S8910'!B9&amp;""=D9,"",'S8910'!B9&amp;"")</f>
         <v/>
       </c>
       <c r="G9" s="7" t="str">
-        <f>IF(翻译前!$B9&amp;""=按ID合成!$D9,"","TRUE")</f>
+        <f>IF('S8910'!$B9&amp;""=ID_out!$D9,"","TRUE")</f>
         <v>TRUE</v>
       </c>
       <c r="H9" s="7" t="s">
@@ -4573,26 +4592,26 @@
         <v>53</v>
       </c>
       <c r="B10" s="3" t="str">
-        <f>IF(ISNUMBER(MATCH(按ID合成!$A10,翻译!$A$2:$A$16574,)),INDEX(翻译!B$2:B$16574,MATCH(按ID合成!$A10,翻译!$A$2:$A$16574,)),翻译前!B10)&amp;""</f>
+        <f>IF(ISNUMBER(MATCH(ID_out!$A10,'S107'!$A$2:$A$16574,)),INDEX('S107'!B$2:B$16574,MATCH(ID_out!$A10,'S107'!$A$2:$A$16574,)),'S8910'!B10)&amp;""</f>
         <v/>
       </c>
       <c r="C10" s="4" t="str">
-        <f>IF(B10="",IF(翻译前!B10=0,B10,翻译前!B10),B10)&amp;""</f>
+        <f>IF(B10="",IF('S8910'!B10=0,B10,'S8910'!B10),B10)&amp;""</f>
         <v/>
       </c>
       <c r="D10" s="5" t="s">
         <v>72</v>
       </c>
       <c r="E10" s="7" t="str">
-        <f>IF(翻译前!B10&amp;""=D10,"",D10)</f>
+        <f>IF('S8910'!B10&amp;""=D10,"",D10)</f>
         <v>Виконано</v>
       </c>
       <c r="F10" s="7" t="str">
-        <f>IF(翻译前!B10&amp;""=D10,"",翻译前!B10&amp;"")</f>
+        <f>IF('S8910'!B10&amp;""=D10,"",'S8910'!B10&amp;"")</f>
         <v/>
       </c>
       <c r="G10" s="7" t="str">
-        <f>IF(翻译前!$B10&amp;""=按ID合成!$D10,"","TRUE")</f>
+        <f>IF('S8910'!$B10&amp;""=ID_out!$D10,"","TRUE")</f>
         <v>TRUE</v>
       </c>
       <c r="H10" s="7" t="s">
@@ -4640,9 +4659,9 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:A48973">
-    <cfRule type="duplicateValues" dxfId="2" priority="151" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="152" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="153" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="151" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="152" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="153" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4653,8 +4672,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.25"/>
@@ -4671,26 +4690,26 @@
         <v>27</v>
       </c>
       <c r="B1" s="3" t="str">
-        <f>IF(ISNUMBER(MATCH(按CN合成!$A1,翻译!#REF!,)),INDEX(翻译!C$2:C$6479,MATCH(按CN合成!$A1,翻译!#REF!,)),翻译前!B1)&amp;""</f>
-        <v/>
+        <f>IF(ISNUMBER(MATCH(CN_out!$A1,'S107'!$B$2:$B$16574,)),INDEX('S107'!C$2:C$6479,MATCH(CN_out!$A1,'S107'!$B$2:$B$16574,)),'S8910'!B1)&amp;""</f>
+        <v>中文</v>
       </c>
       <c r="C1" s="4" t="str">
-        <f>IF(B1="",IF(翻译前!B1=0,B1,翻译前!B1),B1)&amp;""</f>
-        <v/>
+        <f>IF(B1="",IF('S8910'!B1=0,B1,'S8910'!B1),B1)&amp;""</f>
+        <v>中文</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>25</v>
       </c>
       <c r="E1" s="7" t="str">
-        <f>IF(翻译前!B1&amp;""=D1,"",D1)</f>
+        <f>IF('S8910'!B1&amp;""=D1,"",D1)</f>
         <v>vietnamese</v>
       </c>
       <c r="F1" s="7" t="str">
-        <f>IF(翻译前!B1&amp;""=D1,"",翻译前!B1&amp;"")</f>
-        <v/>
+        <f>IF('S8910'!B1&amp;""=D1,"",'S8910'!B1&amp;"")</f>
+        <v>中文</v>
       </c>
       <c r="G1" s="7" t="str">
-        <f>IF(翻译前!B1&amp;""=D1,"","TRUE")</f>
+        <f>IF('S8910'!B1&amp;""=D1,"","TRUE")</f>
         <v>TRUE</v>
       </c>
       <c r="H1">
@@ -4702,26 +4721,26 @@
         <v>30</v>
       </c>
       <c r="B2" s="3" t="str">
-        <f>IF(ISNUMBER(MATCH(按CN合成!$A2,翻译!#REF!,)),INDEX(翻译!C$2:C$6479,MATCH(按CN合成!$A2,翻译!#REF!,)),翻译前!B2)&amp;""</f>
+        <f>IF(ISNUMBER(MATCH(CN_out!$A2,'S107'!$B$2:$B$16574,)),INDEX('S107'!C$2:C$6479,MATCH(CN_out!$A2,'S107'!$B$2:$B$16574,)),'S8910'!B2)&amp;""</f>
         <v>Ukrainian</v>
       </c>
       <c r="C2" s="4" t="str">
-        <f>IF(B2="",IF(翻译前!B2=0,B2,翻译前!B2),B2)&amp;""</f>
+        <f>IF(B2="",IF('S8910'!B2=0,B2,'S8910'!B2),B2)&amp;""</f>
         <v>Ukrainian</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="7" t="str">
-        <f>IF(翻译前!B2&amp;""=D2,"",D2)</f>
+        <f>IF('S8910'!B2&amp;""=D2,"",D2)</f>
         <v/>
       </c>
       <c r="F2" s="7" t="str">
-        <f>IF(翻译前!B2&amp;""=D2,"",翻译前!B2&amp;"")</f>
+        <f>IF('S8910'!B2&amp;""=D2,"",'S8910'!B2&amp;"")</f>
         <v>Ukrainian</v>
       </c>
       <c r="G2" s="7" t="str">
-        <f>IF(翻译前!B2&amp;""=D2,"","TRUE")</f>
+        <f>IF('S8910'!B2&amp;""=D2,"","TRUE")</f>
         <v>TRUE</v>
       </c>
     </row>
@@ -4730,26 +4749,26 @@
         <v>28</v>
       </c>
       <c r="B3" s="3" t="str">
-        <f>IF(ISNUMBER(MATCH(按CN合成!$A3,翻译!#REF!,)),INDEX(翻译!C$2:C$6479,MATCH(按CN合成!$A3,翻译!#REF!,)),翻译前!B3)&amp;""</f>
+        <f>IF(ISNUMBER(MATCH(CN_out!$A3,'S107'!$B$2:$B$16574,)),INDEX('S107'!C$2:C$6479,MATCH(CN_out!$A3,'S107'!$B$2:$B$16574,)),'S8910'!B3)&amp;""</f>
         <v>*#0380#</v>
       </c>
       <c r="C3" s="4" t="str">
-        <f>IF(B3="",IF(翻译前!B3=0,B3,翻译前!B3),B3)&amp;""</f>
+        <f>IF(B3="",IF('S8910'!B3=0,B3,'S8910'!B3),B3)&amp;""</f>
         <v>*#0380#</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="7" t="str">
-        <f>IF(翻译前!B3&amp;""=D3,"",D3)</f>
+        <f>IF('S8910'!B3&amp;""=D3,"",D3)</f>
         <v/>
       </c>
       <c r="F3" s="7" t="str">
-        <f>IF(翻译前!B3&amp;""=D3,"",翻译前!B3&amp;"")</f>
+        <f>IF('S8910'!B3&amp;""=D3,"",'S8910'!B3&amp;"")</f>
         <v>*#0380#</v>
       </c>
       <c r="G3" s="7" t="str">
-        <f>IF(翻译前!B3&amp;""=D3,"","TRUE")</f>
+        <f>IF('S8910'!B3&amp;""=D3,"","TRUE")</f>
         <v>TRUE</v>
       </c>
       <c r="H3" s="21" t="s">
@@ -4761,34 +4780,34 @@
         <v>29</v>
       </c>
       <c r="B4" s="3" t="str">
-        <f>IF(ISNUMBER(MATCH(按CN合成!$A4,翻译!#REF!,)),INDEX(翻译!C$2:C$6479,MATCH(按CN合成!$A4,翻译!#REF!,)),翻译前!B4)&amp;""</f>
+        <f>IF(ISNUMBER(MATCH(CN_out!$A4,'S107'!$B$2:$B$16574,)),INDEX('S107'!C$2:C$6479,MATCH(CN_out!$A4,'S107'!$B$2:$B$16574,)),'S8910'!B4)&amp;""</f>
         <v>OK</v>
       </c>
       <c r="C4" s="4" t="str">
-        <f>IF(B4="",IF(翻译前!B4=0,B4,翻译前!B4),B4)&amp;""</f>
+        <f>IF(B4="",IF('S8910'!B4=0,B4,'S8910'!B4),B4)&amp;""</f>
         <v>OK</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E4" s="7" t="str">
-        <f>IF(翻译前!B4&amp;""=D4,"",D4)</f>
+        <f>IF('S8910'!B4&amp;""=D4,"",D4)</f>
         <v/>
       </c>
       <c r="F4" s="7" t="str">
-        <f>IF(翻译前!B4&amp;""=D4,"",翻译前!B4&amp;"")</f>
+        <f>IF('S8910'!B4&amp;""=D4,"",'S8910'!B4&amp;"")</f>
         <v>OK</v>
       </c>
       <c r="G4" s="7" t="str">
-        <f>IF(翻译前!B4&amp;""=D4,"","TRUE")</f>
+        <f>IF('S8910'!B4&amp;""=D4,"","TRUE")</f>
         <v>TRUE</v>
       </c>
       <c r="H4" t="s">
         <v>32</v>
       </c>
       <c r="I4">
-        <f t="array" ref="I4">SUM(IF(翻译前!B$1:B$6479&lt;&gt;"",1,0))</f>
-        <v>6</v>
+        <f t="array" ref="I4">SUM(IF('S8910'!B$1:B$6479&lt;&gt;"",1,0))</f>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -4802,7 +4821,7 @@
       </c>
       <c r="I5">
         <f t="array" ref="I5">SUM(IF(B$1:B$7&lt;&gt;"",1,0))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -4817,7 +4836,7 @@
       </c>
       <c r="I6">
         <f t="array" ref="I6">SUM(IF(C$1:C$7&lt;&gt;"",1,0))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -4839,7 +4858,7 @@
   <dimension ref="A1:F6497"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.25" x14ac:dyDescent="0.15"/>
@@ -28774,12 +28793,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A4268 A4282">
-    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4268 B4282 D4282 D4268">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28790,10 +28809,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.25" x14ac:dyDescent="0.15"/>
@@ -28814,30 +28833,30 @@
     </row>
     <row r="2" spans="1:7" ht="14.55" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="str">
-        <f>翻译前!A1</f>
+        <f>'S8910'!A1</f>
         <v>Number of Language</v>
       </c>
       <c r="B2" s="3" t="str">
-        <f>IF(ISNUMBER(MATCH(按ID合成!$A1,翻译!$A$2:$A$3,)),INDEX(翻译!C$2:C$3,MATCH(按ID合成!$A1,翻译!$A$2:$A$3,)),翻译前!B1)&amp;""</f>
-        <v/>
+        <f>IF(ISNUMBER(MATCH(ID_out!$A1,'S107'!$A$2:$A$3,)),INDEX('S107'!C$2:C$3,MATCH(ID_out!$A1,'S107'!$A$2:$A$3,)),'S8910'!B1)&amp;""</f>
+        <v>中文</v>
       </c>
       <c r="C2" s="4" t="str">
-        <f>IF(B2="",IF(翻译前!B1=0,B2,翻译前!B1),B2)&amp;""</f>
-        <v/>
+        <f>IF(B2="",IF('S8910'!B1=0,B2,'S8910'!B1),B2)&amp;""</f>
+        <v>中文</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="7" t="str">
-        <f>IF(翻译前!B1&amp;""=D2,"",D2)</f>
+        <f>IF('S8910'!B1&amp;""=D2,"",D2)</f>
         <v>Arabic</v>
       </c>
       <c r="F2" s="7" t="str">
-        <f>IF(翻译前!B1&amp;""=D2,"",翻译前!B1&amp;"")</f>
-        <v/>
+        <f>IF('S8910'!B1&amp;""=D2,"",'S8910'!B1&amp;"")</f>
+        <v>中文</v>
       </c>
       <c r="G2" s="7" t="str">
-        <f>IF(翻译前!B1&amp;""=D2,"","TRUE")</f>
+        <f>IF('S8910'!B1&amp;""=D2,"","TRUE")</f>
         <v>TRUE</v>
       </c>
     </row>
@@ -28890,30 +28909,30 @@
     </row>
     <row r="8" spans="1:7" ht="14.55" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <f>翻译前!A9</f>
+        <f>'S8910'!A9</f>
         <v>0</v>
       </c>
       <c r="B8" s="3" t="str">
-        <f>IF(ISNUMBER(MATCH(按CN合成!$A1,翻译!#REF!,)),INDEX(翻译!C$2:C$3,MATCH(按CN合成!$A1,翻译!#REF!,)),翻译前!B1)&amp;""</f>
-        <v/>
+        <f>IF(ISNUMBER(MATCH(CN_out!$A1,'S107'!#REF!,)),INDEX('S107'!C$2:C$3,MATCH(CN_out!$A1,'S107'!#REF!,)),'S8910'!B1)&amp;""</f>
+        <v>中文</v>
       </c>
       <c r="C8" s="4" t="str">
-        <f>IF(B8="",IF(翻译前!B9=0,B8,翻译前!B9),B8)&amp;""</f>
-        <v/>
+        <f>IF(B8="",IF('S8910'!B9=0,B8,'S8910'!B9),B8)&amp;""</f>
+        <v>中文</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E8" s="7" t="str">
-        <f>IF(翻译前!B9&amp;""=D8,"",D8)</f>
+        <f>IF('S8910'!B9&amp;""=D8,"",D8)</f>
         <v>Arabic</v>
       </c>
       <c r="F8" s="7" t="str">
-        <f>IF(翻译前!B9&amp;""=D8,"",翻译前!B9&amp;"")</f>
+        <f>IF('S8910'!B9&amp;""=D8,"",'S8910'!B9&amp;"")</f>
         <v/>
       </c>
       <c r="G8" s="7" t="str">
-        <f>IF(翻译前!B9&amp;""=D8,"","TRUE")</f>
+        <f>IF('S8910'!B9&amp;""=D8,"","TRUE")</f>
         <v>TRUE</v>
       </c>
     </row>
@@ -29002,6 +29021,11 @@
         <v>21</v>
       </c>
       <c r="B32" s="8"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="25" t="s">
+        <v>77</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/tool/4_翻译字库/翻译替换_mini.xlsx
+++ b/tool/4_翻译字库/翻译替换_mini.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="238" yWindow="106" windowWidth="14810" windowHeight="8019" activeTab="3"/>
+    <workbookView xWindow="238" yWindow="106" windowWidth="14810" windowHeight="8019" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="S8910" sheetId="1" r:id="rId1"/>
@@ -185,9 +185,6 @@
   <si>
     <t>修改sheet1翻译</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vietnamese</t>
   </si>
   <si>
     <r>
@@ -396,6 +393,10 @@
   </si>
   <si>
     <t>语言2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vietnamese</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3620,119 +3621,119 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A2" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="26" t="s">
-        <v>78</v>
+      <c r="B2" s="24" t="s">
+        <v>65</v>
       </c>
-      <c r="C1" s="27" t="s">
-        <v>79</v>
+      <c r="C2" s="24" t="s">
+        <v>54</v>
       </c>
-      <c r="D1" s="27" t="s">
-        <v>80</v>
+      <c r="D2" s="24" t="s">
+        <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
+      <c r="E2" s="24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A3" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B3" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C3" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A4" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A5" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A6" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A7" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="14" t="s">
+      <c r="E7" s="14" t="s">
         <v>68</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -4030,109 +4031,109 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="14" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
+      <c r="B2" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B3" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C3" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="14" t="s">
+      <c r="E7" s="14" t="s">
         <v>68</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -4247,7 +4248,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.25"/>
@@ -4261,7 +4262,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" s="3" t="str">
         <f>IF(ISNUMBER(MATCH(ID_out!$A1,'S107'!$A$2:$A$6479,)),INDEX('S107'!C$2:C$6479,MATCH(ID_out!$A1,'S107'!$A$2:$A$6479,)),'S8910'!B1)&amp;""</f>
@@ -4293,7 +4294,7 @@
         <v>178</v>
       </c>
       <c r="K1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L1" s="7" t="str">
         <f>IF('S8910'!$B$1&amp;""=ID_out!$D$1,"","TRUE")</f>
@@ -4302,7 +4303,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="3" t="str">
         <f>IF(ISNUMBER(MATCH(ID_out!$A2,'S107'!$A$2:$A$16574,)),INDEX('S107'!B$2:B$16574,MATCH(ID_out!$A2,'S107'!$A$2:$A$16574,)),'S8910'!B2)&amp;""</f>
@@ -4313,7 +4314,7 @@
         <v>Ukrainian</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E2" s="7" t="str">
         <f>IF('S8910'!B2&amp;""=D2,"",D2)</f>
@@ -4333,7 +4334,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="3" t="str">
         <f>IF(ISNUMBER(MATCH(ID_out!$A3,'S107'!$A$2:$A$16574,)),INDEX('S107'!B$2:B$16574,MATCH(ID_out!$A3,'S107'!$A$2:$A$16574,)),'S8910'!B3)&amp;""</f>
@@ -4344,7 +4345,7 @@
         <v>*#0380#</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E3" s="7" t="str">
         <f>IF('S8910'!B3&amp;""=D3,"",D3)</f>
@@ -4362,12 +4363,12 @@
         <v>0</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="3" t="str">
         <f>IF(ISNUMBER(MATCH(ID_out!$A4,'S107'!$A$2:$A$16574,)),INDEX('S107'!B$2:B$16574,MATCH(ID_out!$A4,'S107'!$A$2:$A$16574,)),'S8910'!B4)&amp;""</f>
@@ -4378,7 +4379,7 @@
         <v>OK</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E4" s="7" t="str">
         <f>IF('S8910'!B4&amp;""=D4,"",D4)</f>
@@ -4396,7 +4397,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J4">
         <f t="array" ref="J4">SUM(IF('S8910'!B$1:B$6479&lt;&gt;"",1,0))</f>
@@ -4408,7 +4409,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="3" t="str">
         <f>IF(ISNUMBER(MATCH(ID_out!$A5,'S107'!$A$2:$A$16574,)),INDEX('S107'!B$2:B$16574,MATCH(ID_out!$A5,'S107'!$A$2:$A$16574,)),'S8910'!B5)&amp;""</f>
@@ -4419,7 +4420,7 @@
         <v>Назад</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E5" s="7" t="str">
         <f>IF('S8910'!B5&amp;""=D5,"",D5)</f>
@@ -4437,7 +4438,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J5">
         <f t="array" ref="J5">SUM(IF(B$1:B$14&lt;&gt;"",1,0))</f>
@@ -4449,7 +4450,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="3" t="str">
         <f>IF(ISNUMBER(MATCH(ID_out!$A6,'S107'!$A$2:$A$16574,)),INDEX('S107'!B$2:B$16574,MATCH(ID_out!$A6,'S107'!$A$2:$A$16574,)),'S8910'!B6)&amp;""</f>
@@ -4460,7 +4461,7 @@
         <v>Параметри</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E6" s="7" t="str">
         <f>IF('S8910'!B6&amp;""=D6,"",D6)</f>
@@ -4478,7 +4479,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J6">
         <f t="array" ref="J6">SUM(IF(C$1:C$14&lt;&gt;"",1,0))</f>
@@ -4490,7 +4491,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" s="3" t="str">
         <f>IF(ISNUMBER(MATCH(ID_out!$A7,'S107'!$A$2:$A$16574,)),INDEX('S107'!B$2:B$16574,MATCH(ID_out!$A7,'S107'!$A$2:$A$16574,)),'S8910'!B7)&amp;""</f>
@@ -4501,7 +4502,7 @@
         <v>Так</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E7" s="7" t="str">
         <f>IF('S8910'!B7&amp;""=D7,"",D7)</f>
@@ -4521,7 +4522,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" s="3" t="str">
         <f>IF(ISNUMBER(MATCH(ID_out!$A8,'S107'!$A$2:$A$16574,)),INDEX('S107'!B$2:B$16574,MATCH(ID_out!$A8,'S107'!$A$2:$A$16574,)),'S8910'!B8)&amp;""</f>
@@ -4532,7 +4533,7 @@
         <v/>
       </c>
       <c r="D8" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E8" s="7" t="str">
         <f>IF('S8910'!B8&amp;""=D8,"",D8)</f>
@@ -4550,12 +4551,12 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" s="3" t="str">
         <f>IF(ISNUMBER(MATCH(ID_out!$A9,'S107'!$A$2:$A$16574,)),INDEX('S107'!B$2:B$16574,MATCH(ID_out!$A9,'S107'!$A$2:$A$16574,)),'S8910'!B9)&amp;""</f>
@@ -4566,7 +4567,7 @@
         <v/>
       </c>
       <c r="D9" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E9" s="7" t="str">
         <f>IF('S8910'!B9&amp;""=D9,"",D9)</f>
@@ -4584,12 +4585,12 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10" s="3" t="str">
         <f>IF(ISNUMBER(MATCH(ID_out!$A10,'S107'!$A$2:$A$16574,)),INDEX('S107'!B$2:B$16574,MATCH(ID_out!$A10,'S107'!$A$2:$A$16574,)),'S8910'!B10)&amp;""</f>
@@ -4600,7 +4601,7 @@
         <v/>
       </c>
       <c r="D10" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E10" s="7" t="str">
         <f>IF('S8910'!B10&amp;""=D10,"",D10)</f>
@@ -4629,7 +4630,7 @@
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -4672,8 +4673,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.25"/>
@@ -4687,7 +4688,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="3" t="str">
         <f>IF(ISNUMBER(MATCH(CN_out!$A1,'S107'!$B$2:$B$16574,)),INDEX('S107'!C$2:C$6479,MATCH(CN_out!$A1,'S107'!$B$2:$B$16574,)),'S8910'!B1)&amp;""</f>
@@ -4698,7 +4699,7 @@
         <v>中文</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="E1" s="7" t="str">
         <f>IF('S8910'!B1&amp;""=D1,"",D1)</f>
@@ -4718,7 +4719,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3" t="str">
         <f>IF(ISNUMBER(MATCH(CN_out!$A2,'S107'!$B$2:$B$16574,)),INDEX('S107'!C$2:C$6479,MATCH(CN_out!$A2,'S107'!$B$2:$B$16574,)),'S8910'!B2)&amp;""</f>
@@ -4746,7 +4747,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="3" t="str">
         <f>IF(ISNUMBER(MATCH(CN_out!$A3,'S107'!$B$2:$B$16574,)),INDEX('S107'!C$2:C$6479,MATCH(CN_out!$A3,'S107'!$B$2:$B$16574,)),'S8910'!B3)&amp;""</f>
@@ -4772,12 +4773,12 @@
         <v>TRUE</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="3" t="str">
         <f>IF(ISNUMBER(MATCH(CN_out!$A4,'S107'!$B$2:$B$16574,)),INDEX('S107'!C$2:C$6479,MATCH(CN_out!$A4,'S107'!$B$2:$B$16574,)),'S8910'!B4)&amp;""</f>
@@ -4803,7 +4804,7 @@
         <v>TRUE</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I4">
         <f t="array" ref="I4">SUM(IF('S8910'!B$1:B$6479&lt;&gt;"",1,0))</f>
@@ -4817,7 +4818,7 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I5">
         <f t="array" ref="I5">SUM(IF(B$1:B$7&lt;&gt;"",1,0))</f>
@@ -4832,7 +4833,7 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I6">
         <f t="array" ref="I6">SUM(IF(C$1:C$7&lt;&gt;"",1,0))</f>
@@ -4857,8 +4858,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:F6497"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.25" x14ac:dyDescent="0.15"/>
@@ -4884,13 +4885,13 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C4" s="16"/>
       <c r="E4" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C5" s="16"/>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F5">
         <f t="array" ref="F5">SUM(IF(A$1:A$6479&lt;&gt;"",1,0))</f>
@@ -4900,7 +4901,7 @@
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C6" s="16"/>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F6">
         <f t="array" ref="F6">SUM(IF(B$1:B$6479&lt;&gt;"",1,0))</f>
@@ -4910,7 +4911,7 @@
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C7" s="16"/>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F7">
         <v>28</v>
@@ -28828,7 +28829,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.55" x14ac:dyDescent="0.25">
@@ -28862,7 +28863,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.55" x14ac:dyDescent="0.25">
@@ -28876,7 +28877,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>9</v>
@@ -28896,15 +28897,15 @@
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.55" x14ac:dyDescent="0.25">
@@ -29024,7 +29025,7 @@
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
